--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.297291666666667</v>
+        <v>2.893186333333333</v>
       </c>
       <c r="N2">
-        <v>3.891875</v>
+        <v>8.679558999999999</v>
       </c>
       <c r="O2">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="P2">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="Q2">
-        <v>25.88847055527778</v>
+        <v>84.54887458010465</v>
       </c>
       <c r="R2">
-        <v>232.9962349975</v>
+        <v>760.939871220942</v>
       </c>
       <c r="S2">
-        <v>0.002654647585553448</v>
+        <v>0.005008819873331695</v>
       </c>
       <c r="T2">
-        <v>0.002654647585553448</v>
+        <v>0.005008819873331695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.597941</v>
       </c>
       <c r="O3">
-        <v>0.4415441659754047</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="P3">
-        <v>0.4415441659754046</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="Q3">
-        <v>50.54095310338534</v>
+        <v>74.01267284156199</v>
       </c>
       <c r="R3">
-        <v>454.868577930468</v>
+        <v>666.1140555740579</v>
       </c>
       <c r="S3">
-        <v>0.00518255486900981</v>
+        <v>0.004384637269843054</v>
       </c>
       <c r="T3">
-        <v>0.00518255486900981</v>
+        <v>0.004384637269843054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.341011</v>
+        <v>3.448217666666667</v>
       </c>
       <c r="N4">
-        <v>4.023033</v>
+        <v>10.344653</v>
       </c>
       <c r="O4">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="P4">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="Q4">
-        <v>26.76092406960933</v>
+        <v>100.7688027780793</v>
       </c>
       <c r="R4">
-        <v>240.848316626484</v>
+        <v>906.9192250027141</v>
       </c>
       <c r="S4">
-        <v>0.002744110445492685</v>
+        <v>0.005969716149071671</v>
       </c>
       <c r="T4">
-        <v>0.002744110445492685</v>
+        <v>0.00596971614907167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5649363333333334</v>
+        <v>0.8900816666666667</v>
       </c>
       <c r="N5">
-        <v>1.694809</v>
+        <v>2.670245</v>
       </c>
       <c r="O5">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513656</v>
       </c>
       <c r="P5">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513655</v>
       </c>
       <c r="Q5">
-        <v>11.27374668850356</v>
+        <v>26.01125352142333</v>
       </c>
       <c r="R5">
-        <v>101.463720196532</v>
+        <v>234.10128169281</v>
       </c>
       <c r="S5">
-        <v>0.001156029065636552</v>
+        <v>0.001540951126971382</v>
       </c>
       <c r="T5">
-        <v>0.001156029065636552</v>
+        <v>0.001540951126971381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.297291666666667</v>
+        <v>2.893186333333333</v>
       </c>
       <c r="N6">
-        <v>3.891875</v>
+        <v>8.679558999999999</v>
       </c>
       <c r="O6">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="P6">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="Q6">
-        <v>2124.111874778472</v>
+        <v>4737.139383906307</v>
       </c>
       <c r="R6">
-        <v>19117.00687300625</v>
+        <v>42634.25445515676</v>
       </c>
       <c r="S6">
-        <v>0.2178100265825293</v>
+        <v>0.2806362356292739</v>
       </c>
       <c r="T6">
-        <v>0.2178100265825293</v>
+        <v>0.2806362356292739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.597941</v>
       </c>
       <c r="O7">
-        <v>0.4415441659754047</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="P7">
-        <v>0.4415441659754046</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="Q7">
-        <v>4146.812706463137</v>
+        <v>4146.812706463136</v>
       </c>
       <c r="R7">
         <v>37321.31435816823</v>
       </c>
       <c r="S7">
-        <v>0.4252211931735961</v>
+        <v>0.2456642740458727</v>
       </c>
       <c r="T7">
-        <v>0.4252211931735961</v>
+        <v>0.2456642740458727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.341011</v>
+        <v>3.448217666666667</v>
       </c>
       <c r="N8">
-        <v>4.023033</v>
+        <v>10.344653</v>
       </c>
       <c r="O8">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="P8">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="Q8">
-        <v>2195.695434186776</v>
+        <v>5645.916242881065</v>
       </c>
       <c r="R8">
-        <v>19761.25890768099</v>
+        <v>50813.24618592959</v>
       </c>
       <c r="S8">
-        <v>0.2251503259155015</v>
+        <v>0.3344737303831999</v>
       </c>
       <c r="T8">
-        <v>0.2251503259155015</v>
+        <v>0.3344737303831998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5649363333333334</v>
+        <v>0.8900816666666667</v>
       </c>
       <c r="N9">
-        <v>1.694809</v>
+        <v>2.670245</v>
       </c>
       <c r="O9">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513656</v>
       </c>
       <c r="P9">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513655</v>
       </c>
       <c r="Q9">
-        <v>924.9947447904744</v>
+        <v>1457.369291939705</v>
       </c>
       <c r="R9">
-        <v>8324.952703114272</v>
+        <v>13116.32362745735</v>
       </c>
       <c r="S9">
-        <v>0.09485052663364314</v>
+        <v>0.08633704834633772</v>
       </c>
       <c r="T9">
-        <v>0.09485052663364316</v>
+        <v>0.08633704834633769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.297291666666667</v>
+        <v>2.893186333333333</v>
       </c>
       <c r="N10">
-        <v>3.891875</v>
+        <v>8.679558999999999</v>
       </c>
       <c r="O10">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="P10">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="Q10">
-        <v>32.94617916597223</v>
+        <v>108.1823898462689</v>
       </c>
       <c r="R10">
-        <v>296.51561249375</v>
+        <v>973.64150861642</v>
       </c>
       <c r="S10">
-        <v>0.003378356971278447</v>
+        <v>0.006408909721123788</v>
       </c>
       <c r="T10">
-        <v>0.003378356971278447</v>
+        <v>0.006408909721123787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.597941</v>
       </c>
       <c r="O11">
-        <v>0.4415441659754047</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="P11">
-        <v>0.4415441659754046</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="Q11">
-        <v>64.31941557179668</v>
+        <v>94.70105742595334</v>
       </c>
       <c r="R11">
-        <v>578.8747401461701</v>
+        <v>852.30951683358</v>
       </c>
       <c r="S11">
-        <v>0.006595421729812066</v>
+        <v>0.005610252541105487</v>
       </c>
       <c r="T11">
-        <v>0.006595421729812066</v>
+        <v>0.005610252541105486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.341011</v>
+        <v>3.448217666666667</v>
       </c>
       <c r="N12">
-        <v>4.023033</v>
+        <v>10.344653</v>
       </c>
       <c r="O12">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="P12">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="Q12">
-        <v>34.05648074735667</v>
+        <v>128.9361917662378</v>
       </c>
       <c r="R12">
-        <v>306.50832672621</v>
+        <v>1160.42572589614</v>
       </c>
       <c r="S12">
-        <v>0.003492209174558084</v>
+        <v>0.007638400427182116</v>
       </c>
       <c r="T12">
-        <v>0.003492209174558085</v>
+        <v>0.007638400427182114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5649363333333334</v>
+        <v>0.8900816666666667</v>
       </c>
       <c r="N13">
-        <v>1.694809</v>
+        <v>2.670245</v>
       </c>
       <c r="O13">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513656</v>
       </c>
       <c r="P13">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513655</v>
       </c>
       <c r="Q13">
-        <v>14.34719279681445</v>
+        <v>33.28204642367778</v>
       </c>
       <c r="R13">
-        <v>129.12473517133</v>
+        <v>299.5384178131</v>
       </c>
       <c r="S13">
-        <v>0.001471185431221572</v>
+        <v>0.001971685328515215</v>
       </c>
       <c r="T13">
-        <v>0.001471185431221572</v>
+        <v>0.001971685328515215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.297291666666667</v>
+        <v>2.893186333333333</v>
       </c>
       <c r="N14">
-        <v>3.891875</v>
+        <v>8.679558999999999</v>
       </c>
       <c r="O14">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="P14">
-        <v>0.2261711035865543</v>
+        <v>0.296307560753476</v>
       </c>
       <c r="Q14">
-        <v>22.70366708097223</v>
+        <v>71.80068839645099</v>
       </c>
       <c r="R14">
-        <v>204.33300372875</v>
+        <v>646.206195568059</v>
       </c>
       <c r="S14">
-        <v>0.002328072447193106</v>
+        <v>0.004253595529746614</v>
       </c>
       <c r="T14">
-        <v>0.002328072447193107</v>
+        <v>0.004253595529746613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.597941</v>
       </c>
       <c r="O15">
-        <v>0.4415441659754047</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="P15">
-        <v>0.4415441659754046</v>
+        <v>0.2593826903485334</v>
       </c>
       <c r="Q15">
-        <v>44.32339758210868</v>
+        <v>62.853123551049</v>
       </c>
       <c r="R15">
-        <v>398.9105782389781</v>
+        <v>565.678111959441</v>
       </c>
       <c r="S15">
-        <v>0.004544996202986694</v>
+        <v>0.003723526491712138</v>
       </c>
       <c r="T15">
-        <v>0.004544996202986695</v>
+        <v>0.003723526491712138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.341011</v>
+        <v>3.448217666666667</v>
       </c>
       <c r="N16">
-        <v>4.023033</v>
+        <v>10.344653</v>
       </c>
       <c r="O16">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="P16">
-        <v>0.2337931751084313</v>
+        <v>0.353151455882854</v>
       </c>
       <c r="Q16">
-        <v>23.46879123501267</v>
+        <v>85.57499368601701</v>
       </c>
       <c r="R16">
-        <v>211.219121115114</v>
+        <v>770.1749431741531</v>
       </c>
       <c r="S16">
-        <v>0.002406529572879043</v>
+        <v>0.00506960892340036</v>
       </c>
       <c r="T16">
-        <v>0.002406529572879043</v>
+        <v>0.005069608923400359</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5649363333333334</v>
+        <v>0.8900816666666667</v>
       </c>
       <c r="N17">
-        <v>1.694809</v>
+        <v>2.670245</v>
       </c>
       <c r="O17">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513656</v>
       </c>
       <c r="P17">
-        <v>0.09849155532960964</v>
+        <v>0.09115829301513655</v>
       </c>
       <c r="Q17">
-        <v>9.886848704502446</v>
+        <v>22.089305365305</v>
       </c>
       <c r="R17">
-        <v>88.98163834052203</v>
+        <v>198.803748287745</v>
       </c>
       <c r="S17">
-        <v>0.001013814199108374</v>
+        <v>0.001308608213312249</v>
       </c>
       <c r="T17">
-        <v>0.001013814199108374</v>
+        <v>0.001308608213312248</v>
       </c>
     </row>
   </sheetData>
